--- a/frontend/static/Financial Values.xlsx
+++ b/frontend/static/Financial Values.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhill24\Desktop\Financial-Advisor-Senior-Project-master\frontend\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Desktop\Financial-Advisor-Senior-Project\frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B2C75-94C2-4278-AFE9-68B0763AF213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,25 +446,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -489,7 +490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -512,7 +513,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -532,7 +533,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -555,7 +556,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -575,7 +576,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -595,7 +596,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -615,7 +616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -629,12 +630,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -643,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -657,7 +658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -677,7 +678,7 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -697,7 +698,7 @@
         <v>-99</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>

--- a/frontend/static/Financial Values.xlsx
+++ b/frontend/static/Financial Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Desktop\Financial-Advisor-Senior-Project\frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B2C75-94C2-4278-AFE9-68B0763AF213}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCF6197-BA7C-46F2-B670-5824E3CF3E7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Objective</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>pricetoearnings</t>
-  </si>
-  <si>
-    <t>Price to Revenue</t>
-  </si>
-  <si>
-    <t>pricetorevenue</t>
-  </si>
-  <si>
-    <t>desc</t>
   </si>
   <si>
     <t>Free Cash Flow to Firm</t>
@@ -447,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -621,7 +612,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -632,16 +623,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>2000000000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -649,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -657,62 +654,11 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F11">
-        <v>2000000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12">
+      <c r="F10">
         <v>-99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
